--- a/IRCS3_local/IRCS4_build/input_excel/input reas con.xlsx
+++ b/IRCS3_local/IRCS4_build/input_excel/input reas con.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\run control 4\input_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\13. Employee Folder\Christo\control 4\Q3 25\input excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94DF886-2774-490A-8023-87107E82CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DFA608-EE01-48E1-94A1-1A7C8DA5BC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{3E507947-667D-48FC-8161-25FD0280FDA7}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="File Path" sheetId="1" r:id="rId3"/>
     <sheet name="Code" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -59,239 +59,236 @@
     <t>RAFM File Name</t>
   </si>
   <si>
-    <t>SUM_BE</t>
+    <t>run4RE_NB_UNIFY_Con</t>
+  </si>
+  <si>
+    <t>run43RE_NB_UNIFY_Con</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-NONECASSUMPOTHER-EOQ_20251231</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-NONECASSUMPOTHER-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>run4RE_NBQ2_UNIFY_Con</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-NONECASSUMPOTHER-EOQ_20250630</t>
+  </si>
+  <si>
+    <t>run4RE_NBQ1_UNIFY_Con</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-NONECASSUMPOTHER-EOQ_20250331</t>
+  </si>
+  <si>
+    <t>run42RE_NBQ4_UNIFY_Con</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-EXPOTHER-EOQ_20251231</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-EXPOTHER-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-EXPOTHER-EOQ_20250630</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-EXPOTHER-EOQ_20250331</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_B_D_NB_IFRS-UNWINDINGPRJCF-BOQ_20251231</t>
+  </si>
+  <si>
+    <t>run31RE_NB_UNIFY_Con</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_B_D_NB_IFRS-UNWINDINGPRJCF-BOQ_20250930</t>
+  </si>
+  <si>
+    <t>run21RE_NB_UNIFY_Con</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_B_D_NB_IFRS-UNWINDINGPRJCF-BOQ_20250630</t>
+  </si>
+  <si>
+    <t>run11RE_NB_UNIFY_azcp_Con</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_B_D_NB_IFRS-UNWINDINGPRJCF-BOQ_20250331</t>
+  </si>
+  <si>
+    <t>run40RE_NB_UNIFY_Con</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_E_D_NB_IFRS-BE-QUARTER-SLICE-BOQ_20251231</t>
+  </si>
+  <si>
+    <t>run30RE_NB_UNIFY_Con</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_E_D_NB_IFRS-BE-QUARTER-SLICE-BOQ_20250930</t>
+  </si>
+  <si>
+    <t>run20RE_NB_UNIFY_Con</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_E_D_NB_IFRS-BE-QUARTER-SLICE-BOQ_20250630</t>
+  </si>
+  <si>
+    <t>run10RE_NB_UNIFY_azcp_Con</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_E_D_NB_IFRS-BE-QUARTER-SLICE-BOQ_20250331</t>
+  </si>
+  <si>
+    <t>run103RE_IF_IFv1_UNIFY_Con</t>
+  </si>
+  <si>
+    <t>output_path</t>
+  </si>
+  <si>
+    <t>output_filename</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Val Year</t>
+  </si>
+  <si>
+    <t>Val Month</t>
+  </si>
+  <si>
+    <t>Val Day</t>
+  </si>
+  <si>
+    <t>File naming</t>
+  </si>
+  <si>
+    <t>REAS ARGO File Path</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\IFRS17\2025\Q2\09. ARGO\CF File\REAS\Conven\</t>
+  </si>
+  <si>
+    <t>REAS Extract File Path</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\IFRS17\2025\Q2\03. RAFM\Extraction\REAS\Conventional\</t>
+  </si>
+  <si>
+    <t>prm_inc</t>
+  </si>
+  <si>
+    <t>lrc_cl_ins</t>
+  </si>
+  <si>
+    <t>lrc_cl_inv</t>
+  </si>
+  <si>
+    <t>r_exp_m</t>
+  </si>
+  <si>
+    <t>r_acq_cost</t>
+  </si>
+  <si>
+    <t>cov_units</t>
+  </si>
+  <si>
+    <t>dac_cov_units</t>
+  </si>
+  <si>
+    <t>dac</t>
+  </si>
+  <si>
+    <t>exp_acq</t>
+  </si>
+  <si>
+    <t>lrc_cl_ins_dth</t>
+  </si>
+  <si>
+    <t>lrc_cl_inv_dth</t>
+  </si>
+  <si>
+    <t>lrc_cl_inv_surr</t>
+  </si>
+  <si>
+    <t>lrc_cl_inv_mat</t>
+  </si>
+  <si>
+    <t>lrc_cl_inv_ann</t>
+  </si>
+  <si>
+    <t>Rafm Manual</t>
+  </si>
+  <si>
+    <t>D:\Run Control 4\Input\RAFM MANUAL\RAFM Manual reas con.xlsx</t>
+  </si>
+  <si>
+    <t>run142RE_IF_IFv1_UNIFY_adj_Con</t>
+  </si>
+  <si>
+    <t>run4RE_IF_IFv1_UNIFY_adj_Con</t>
+  </si>
+  <si>
+    <t>run4RE_NBQ3_UNIFY_Con</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_F_D_IF-IF_IFRS-TRUEUP-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-EXPNODETAILS-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-NONECASSUMPNODETAILS-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-ECASSUMPEQUITYLEVEL-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-ECASSUMPINTLEVEL-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_IF-IF_IFRS-ECASSUMPOTHERCURRENCY-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_E_D_NB_IFRS-BE-BOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_NB_IFRS-EXPVARIANCE-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_NB_IFRS-NFA-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_REAS_G_D_NB_IFRS-FA-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\Christo\control 4\Q3 25\reas con\ARGO</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\Christo\control 4\Q3 25\reas con\RAFM</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\Christo\control 4\Q3 25\reas con</t>
+  </si>
+  <si>
+    <t>reas con Q3 25.xlsx</t>
+  </si>
+  <si>
+    <t>SUM_QUARTER</t>
   </si>
   <si>
     <t>SUM_EXPOTHER</t>
-  </si>
-  <si>
-    <t>SUM_NONECASSUMPOTHER</t>
-  </si>
-  <si>
-    <t>run4RE_NB_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_NB_IFRS-FA-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_NB_IFRS-NFA-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>run43RE_NB_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-NONECASSUMPOTHER-EOQ_20251231</t>
-  </si>
-  <si>
-    <t>run33RE_NB_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-NONECASSUMPOTHER-EOQ_20250930</t>
-  </si>
-  <si>
-    <t>run4RE_NBQ2_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-NONECASSUMPOTHER-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>run4RE_NBQ1_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-NONECASSUMPOTHER-EOQ_20250331</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_NB_IFRS-EXPVARIANCE-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>run42RE_NBQ4_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-EXPOTHER-EOQ_20251231</t>
-  </si>
-  <si>
-    <t>run32RE_NBQ3_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-EXPOTHER-EOQ_20250930</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-EXPOTHER-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-EXPOTHER-EOQ_20250331</t>
-  </si>
-  <si>
-    <t>run41RE_NB_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_B_D_NB_IFRS-UNWINDINGPRJCF-BOQ_20251231</t>
-  </si>
-  <si>
-    <t>run31RE_NB_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_B_D_NB_IFRS-UNWINDINGPRJCF-BOQ_20250930</t>
-  </si>
-  <si>
-    <t>run21RE_NB_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_B_D_NB_IFRS-UNWINDINGPRJCF-BOQ_20250630</t>
-  </si>
-  <si>
-    <t>run11RE_NB_UNIFY_azcp_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_B_D_NB_IFRS-UNWINDINGPRJCF-BOQ_20250331</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_E_D_NB_IFRS-BE-BOQ_20250630</t>
-  </si>
-  <si>
-    <t>run40RE_NB_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_E_D_NB_IFRS-BE-QUARTER-SLICE-BOQ_20251231</t>
-  </si>
-  <si>
-    <t>run30RE_NB_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_E_D_NB_IFRS-BE-QUARTER-SLICE-BOQ_20250930</t>
-  </si>
-  <si>
-    <t>run20RE_NB_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_E_D_NB_IFRS-BE-QUARTER-SLICE-BOQ_20250630</t>
-  </si>
-  <si>
-    <t>run10RE_NB_UNIFY_azcp_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_E_D_NB_IFRS-BE-QUARTER-SLICE-BOQ_20250331</t>
-  </si>
-  <si>
-    <t>run4RE_IF_IFv1_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-ECASSUMPOTHERCURRENCY-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>run142RE_IF_IFv1_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-ECASSUMPINTLEVEL-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-ECASSUMPEQUITYLEVEL-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-NONECASSUMPNODETAILS-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_G_D_IF-IF_IFRS-EXPNODETAILS-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>run103RE_IF_IFv1_UNIFY_Con</t>
-  </si>
-  <si>
-    <t>ID0002_REAS_F_D_IF-IF_IFRS-TRUEUP-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>output_path</t>
-  </si>
-  <si>
-    <t>output_filename</t>
-  </si>
-  <si>
-    <t>D:\Python\run control 4\output</t>
-  </si>
-  <si>
-    <t>reas con.xlsx</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Val Year</t>
-  </si>
-  <si>
-    <t>Val Month</t>
-  </si>
-  <si>
-    <t>Val Day</t>
-  </si>
-  <si>
-    <t>File naming</t>
-  </si>
-  <si>
-    <t>REAS ARGO File Path</t>
-  </si>
-  <si>
-    <t>P:\13. Employee Folder\IFRS17\2025\Q2\09. ARGO\CF File\REAS\Conven\</t>
-  </si>
-  <si>
-    <t>REAS Extract File Path</t>
-  </si>
-  <si>
-    <t>P:\13. Employee Folder\IFRS17\2025\Q2\03. RAFM\Extraction\REAS\Conventional\</t>
-  </si>
-  <si>
-    <t>prm_inc</t>
-  </si>
-  <si>
-    <t>lrc_cl_ins</t>
-  </si>
-  <si>
-    <t>lrc_cl_inv</t>
-  </si>
-  <si>
-    <t>r_exp_m</t>
-  </si>
-  <si>
-    <t>r_acq_cost</t>
-  </si>
-  <si>
-    <t>cov_units</t>
-  </si>
-  <si>
-    <t>dac_cov_units</t>
-  </si>
-  <si>
-    <t>dac</t>
-  </si>
-  <si>
-    <t>exp_acq</t>
-  </si>
-  <si>
-    <t>lrc_cl_ins_dth</t>
-  </si>
-  <si>
-    <t>lrc_cl_inv_dth</t>
-  </si>
-  <si>
-    <t>lrc_cl_inv_surr</t>
-  </si>
-  <si>
-    <t>lrc_cl_inv_mat</t>
-  </si>
-  <si>
-    <t>lrc_cl_inv_ann</t>
-  </si>
-  <si>
-    <t>D:\Python\run control 4\Input\03. RAFM\Extraction\REAS\Conventional</t>
-  </si>
-  <si>
-    <t>D:\Python\run control 4\Input\CF File\REAS\Conven</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,8 +317,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,14 +333,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -381,15 +378,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -397,6 +390,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,86 +743,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="9">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5">
         <v>45809</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6">
         <v>2025</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6">
         <v>30</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="6">
         <v>20250630</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>20231231</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>63</v>
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -842,46 +841,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -935,10 +934,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86935E8-9509-4E4E-B853-139B75EE5E09}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -968,23 +967,31 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -997,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE40447-EFD9-4533-9619-0FD56D9BC4CA}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,227 +1021,247 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="5"/>
+      <c r="A2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="A3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="A4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="5"/>
+      <c r="A5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="5"/>
+      <c r="A6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
+      <c r="A7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
+      <c r="A9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
+      <c r="A10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="str">
+        <f>B13&amp;"_ori"</f>
+        <v>run11RE_NB_UNIFY_azcp_Con_ori</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="str">
+        <f>B14&amp;"_ori"</f>
+        <v>run21RE_NB_UNIFY_Con_ori</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="str">
+        <f>B15&amp;"_ori"</f>
+        <v>run31RE_NB_UNIFY_Con_ori</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="str">
+        <f ca="1">B16&amp;"_ori"</f>
+        <v>_ori</v>
       </c>
     </row>
   </sheetData>
